--- a/src/GCModeller/annotations/GSEA/data/TCS_result_KO.xlsx
+++ b/src/GCModeller/annotations/GSEA/data/TCS_result_KO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GCModeller\src\GCModeller\annotations\GSEA\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="23715" windowHeight="10755"/>
   </bookViews>
@@ -778,12 +783,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -791,7 +796,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -800,7 +805,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -809,7 +814,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -818,7 +823,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -827,7 +832,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -835,7 +840,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -843,7 +848,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -851,7 +856,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -859,7 +864,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -868,7 +873,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -877,7 +882,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -885,7 +890,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -894,7 +899,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -902,7 +907,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -911,7 +916,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -920,7 +925,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -928,16 +933,24 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1372,7 +1385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,52 +1393,58 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1433,12 +1452,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1480,7 +1502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1515,7 +1537,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1727,25 +1749,25 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" customWidth="1"/>
-    <col min="3" max="3" width="50.125" customWidth="1"/>
-    <col min="4" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1770,11 +1792,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1799,11 +1821,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1828,11 +1850,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1857,11 +1879,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1886,11 +1908,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1915,11 +1937,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1944,11 +1966,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1973,11 +1995,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2002,11 +2024,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2031,11 +2053,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2060,11 +2082,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2089,11 +2111,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2118,11 +2140,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2147,11 +2169,11 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2176,11 +2198,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2205,11 +2227,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2234,11 +2256,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2263,11 +2285,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2292,11 +2314,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2321,11 +2343,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2350,11 +2372,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2379,11 +2401,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2408,11 +2430,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2437,11 +2459,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2466,11 +2488,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2495,11 +2517,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2524,11 +2546,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2553,11 +2575,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>179</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C29" t="s">
@@ -2582,11 +2604,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>213</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C30" t="s">
@@ -2611,11 +2633,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>217</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C31" t="s">
@@ -2640,11 +2662,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>220</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C32" t="s">
@@ -2669,11 +2691,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>223</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C33" t="s">
@@ -2698,11 +2720,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>226</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C34" t="s">
@@ -2727,11 +2749,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>229</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C35" t="s">
@@ -2756,11 +2778,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>232</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C36" t="s">
@@ -2785,11 +2807,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>235</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C37" t="s">
@@ -2814,11 +2836,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>238</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C38" t="s">
@@ -2843,11 +2865,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>241</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C39" t="s">
@@ -2872,11 +2894,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>244</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C40" t="s">
@@ -2901,11 +2923,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>247</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C41" t="s">
@@ -2930,11 +2952,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>250</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C42" t="s">
@@ -2959,11 +2981,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>176</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C43" t="s">
@@ -2988,11 +3010,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>117</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C44" t="s">
@@ -3017,11 +3039,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
@@ -3046,11 +3068,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>75</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C46" t="s">
@@ -3075,11 +3097,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>188</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C47" t="s">
@@ -3104,11 +3126,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C48" t="s">
@@ -3133,11 +3155,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C49" t="s">
@@ -3162,11 +3184,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>164</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C50" t="s">
@@ -3191,11 +3213,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>182</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C51" t="s">
@@ -3220,11 +3242,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>191</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C52" t="s">
@@ -3249,11 +3271,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>158</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C53" t="s">
@@ -3278,11 +3300,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C54" t="s">
@@ -3307,11 +3329,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>152</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C55" t="s">
@@ -3336,11 +3358,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
@@ -3365,11 +3387,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>137</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C57" t="s">
@@ -3394,11 +3416,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>161</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C58" t="s">
@@ -3423,11 +3445,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>108</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C59" t="s">
@@ -3452,11 +3474,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>94</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C60" t="s">
@@ -3481,11 +3503,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>39</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C61" t="s">
@@ -3510,11 +3532,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>170</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C62" t="s">
@@ -3539,11 +3561,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C63" t="s">
@@ -3568,11 +3590,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C64" t="s">
@@ -3597,11 +3619,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>79</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C65" t="s">
@@ -3626,11 +3648,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>34</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C66" t="s">
@@ -3655,11 +3677,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>100</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C67" t="s">
@@ -3684,11 +3706,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C68" t="s">
@@ -3713,11 +3735,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>48</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C69" t="s">
@@ -3760,5 +3782,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/GCModeller/annotations/GSEA/data/TCS_result_KO.xlsx
+++ b/src/GCModeller/annotations/GSEA/data/TCS_result_KO.xlsx
@@ -315,6 +315,66 @@
     <t>http://www.genome.jp/kegg-bin/show_pathway?map00910</t>
   </si>
   <si>
+    <t>map05134</t>
+  </si>
+  <si>
+    <t>Legionellosis - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05134</t>
+  </si>
+  <si>
+    <t>2/130</t>
+  </si>
+  <si>
+    <t>XC_2245; XC_2564</t>
+  </si>
+  <si>
+    <t>map00072</t>
+  </si>
+  <si>
+    <t>Synthesis and degradation of ketone bodies - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00072</t>
+  </si>
+  <si>
+    <t>XC_2943; XC_0204</t>
+  </si>
+  <si>
+    <t>map01502</t>
+  </si>
+  <si>
+    <t>Vancomycin resistance - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map01502</t>
+  </si>
+  <si>
+    <t>XC_3873; XC_3111</t>
+  </si>
+  <si>
+    <t>map04626</t>
+  </si>
+  <si>
+    <t>Plant-pathogen interaction - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map04626</t>
+  </si>
+  <si>
+    <t>XC_2245; XC_0828</t>
+  </si>
+  <si>
+    <t>map00310</t>
+  </si>
+  <si>
+    <t>Lysine degradation - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00310</t>
+  </si>
+  <si>
     <t>map01110</t>
   </si>
   <si>
@@ -327,31 +387,151 @@
     <t>XC_3897; XC_2943; XC_0204</t>
   </si>
   <si>
-    <t>map05134</t>
-  </si>
-  <si>
-    <t>Legionellosis - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05134</t>
-  </si>
-  <si>
-    <t>2/130</t>
-  </si>
-  <si>
-    <t>XC_2245; XC_2564</t>
-  </si>
-  <si>
-    <t>map00072</t>
-  </si>
-  <si>
-    <t>Synthesis and degradation of ketone bodies - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00072</t>
-  </si>
-  <si>
-    <t>XC_2943; XC_0204</t>
+    <t>map00250</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00250</t>
+  </si>
+  <si>
+    <t>map05132</t>
+  </si>
+  <si>
+    <t>Salmonella infection - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05132</t>
+  </si>
+  <si>
+    <t>1/131</t>
+  </si>
+  <si>
+    <t>XC_2245</t>
+  </si>
+  <si>
+    <t>map05150</t>
+  </si>
+  <si>
+    <t>Staphylococcus aureus infection - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05150</t>
+  </si>
+  <si>
+    <t>XC_2916</t>
+  </si>
+  <si>
+    <t>map04115</t>
+  </si>
+  <si>
+    <t>p53 signaling pathway - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map04115</t>
+  </si>
+  <si>
+    <t>XC_2564</t>
+  </si>
+  <si>
+    <t>map04215</t>
+  </si>
+  <si>
+    <t>Apoptosis - multiple species - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map04215</t>
+  </si>
+  <si>
+    <t>map05210</t>
+  </si>
+  <si>
+    <t>Colorectal cancer - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05210</t>
+  </si>
+  <si>
+    <t>map05222</t>
+  </si>
+  <si>
+    <t>Small cell lung cancer - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05222</t>
+  </si>
+  <si>
+    <t>map05416</t>
+  </si>
+  <si>
+    <t>Viral myocarditis - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05416</t>
+  </si>
+  <si>
+    <t>map05145</t>
+  </si>
+  <si>
+    <t>Toxoplasmosis - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05145</t>
+  </si>
+  <si>
+    <t>map05161</t>
+  </si>
+  <si>
+    <t>Hepatitis B - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05161</t>
+  </si>
+  <si>
+    <t>map05163</t>
+  </si>
+  <si>
+    <t>Human cytomegalovirus infection - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05163</t>
+  </si>
+  <si>
+    <t>map05164</t>
+  </si>
+  <si>
+    <t>Influenza A - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05164</t>
+  </si>
+  <si>
+    <t>map05167</t>
+  </si>
+  <si>
+    <t>Kaposi sarcoma-associated herpesvirus infection - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05167</t>
+  </si>
+  <si>
+    <t>map05168</t>
+  </si>
+  <si>
+    <t>Herpes simplex infection - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05168</t>
+  </si>
+  <si>
+    <t>map05170</t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus 1 infection - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05170</t>
   </si>
   <si>
     <t>map01130</t>
@@ -363,186 +543,6 @@
     <t>http://www.genome.jp/kegg-bin/show_pathway?map01130</t>
   </si>
   <si>
-    <t>map01502</t>
-  </si>
-  <si>
-    <t>Vancomycin resistance - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map01502</t>
-  </si>
-  <si>
-    <t>XC_3873; XC_3111</t>
-  </si>
-  <si>
-    <t>map04626</t>
-  </si>
-  <si>
-    <t>Plant-pathogen interaction - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map04626</t>
-  </si>
-  <si>
-    <t>XC_2245; XC_0828</t>
-  </si>
-  <si>
-    <t>map00310</t>
-  </si>
-  <si>
-    <t>Lysine degradation - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00310</t>
-  </si>
-  <si>
-    <t>map00250</t>
-  </si>
-  <si>
-    <t>Alanine, aspartate and glutamate metabolism - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00250</t>
-  </si>
-  <si>
-    <t>map05132</t>
-  </si>
-  <si>
-    <t>Salmonella infection - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05132</t>
-  </si>
-  <si>
-    <t>1/131</t>
-  </si>
-  <si>
-    <t>XC_2245</t>
-  </si>
-  <si>
-    <t>map05150</t>
-  </si>
-  <si>
-    <t>Staphylococcus aureus infection - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05150</t>
-  </si>
-  <si>
-    <t>XC_2916</t>
-  </si>
-  <si>
-    <t>map04115</t>
-  </si>
-  <si>
-    <t>p53 signaling pathway - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map04115</t>
-  </si>
-  <si>
-    <t>XC_2564</t>
-  </si>
-  <si>
-    <t>map04215</t>
-  </si>
-  <si>
-    <t>Apoptosis - multiple species - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map04215</t>
-  </si>
-  <si>
-    <t>map05210</t>
-  </si>
-  <si>
-    <t>Colorectal cancer - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05210</t>
-  </si>
-  <si>
-    <t>map05222</t>
-  </si>
-  <si>
-    <t>Small cell lung cancer - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05222</t>
-  </si>
-  <si>
-    <t>map05416</t>
-  </si>
-  <si>
-    <t>Viral myocarditis - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05416</t>
-  </si>
-  <si>
-    <t>map05145</t>
-  </si>
-  <si>
-    <t>Toxoplasmosis - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05145</t>
-  </si>
-  <si>
-    <t>map05161</t>
-  </si>
-  <si>
-    <t>Hepatitis B - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05161</t>
-  </si>
-  <si>
-    <t>map05163</t>
-  </si>
-  <si>
-    <t>Human cytomegalovirus infection - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05163</t>
-  </si>
-  <si>
-    <t>map05164</t>
-  </si>
-  <si>
-    <t>Influenza A - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05164</t>
-  </si>
-  <si>
-    <t>map05167</t>
-  </si>
-  <si>
-    <t>Kaposi sarcoma-associated herpesvirus infection - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05167</t>
-  </si>
-  <si>
-    <t>map05168</t>
-  </si>
-  <si>
-    <t>Herpes simplex infection - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05168</t>
-  </si>
-  <si>
-    <t>map05170</t>
-  </si>
-  <si>
-    <t>Human immunodeficiency virus 1 infection - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05170</t>
-  </si>
-  <si>
     <t>map00071</t>
   </si>
   <si>
@@ -561,6 +561,27 @@
     <t>http://www.genome.jp/kegg-bin/show_pathway?map00900</t>
   </si>
   <si>
+    <t>map04210</t>
+  </si>
+  <si>
+    <t>Apoptosis - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map04210</t>
+  </si>
+  <si>
+    <t>map01501</t>
+  </si>
+  <si>
+    <t>beta-Lactam resistance - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map01501</t>
+  </si>
+  <si>
+    <t>XC_1235; XC_0828</t>
+  </si>
+  <si>
     <t>map02010</t>
   </si>
   <si>
@@ -573,6 +594,219 @@
     <t>XC_2707; XC_2708; XC_4059; XC_4058</t>
   </si>
   <si>
+    <t>map05133</t>
+  </si>
+  <si>
+    <t>Pertussis - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05133</t>
+  </si>
+  <si>
+    <t>XC_0828</t>
+  </si>
+  <si>
+    <t>map04214</t>
+  </si>
+  <si>
+    <t>Apoptosis - fly - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map04214</t>
+  </si>
+  <si>
+    <t>map00380</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00380</t>
+  </si>
+  <si>
+    <t>map00640</t>
+  </si>
+  <si>
+    <t>Propanoate metabolism - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00640</t>
+  </si>
+  <si>
+    <t>map00362</t>
+  </si>
+  <si>
+    <t>Benzoate degradation - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00362</t>
+  </si>
+  <si>
+    <t>map00280</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00280</t>
+  </si>
+  <si>
+    <t>map00720</t>
+  </si>
+  <si>
+    <t>Carbon fixation pathways in prokaryotes - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00720</t>
+  </si>
+  <si>
+    <t>map00650</t>
+  </si>
+  <si>
+    <t>Butanoate metabolism - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00650</t>
+  </si>
+  <si>
+    <t>map05014</t>
+  </si>
+  <si>
+    <t>Amyotrophic lateral sclerosis (ALS) - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05014</t>
+  </si>
+  <si>
+    <t>map00790</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00790</t>
+  </si>
+  <si>
+    <t>XC_1519; XC_4131</t>
+  </si>
+  <si>
+    <t>map04621</t>
+  </si>
+  <si>
+    <t>NOD-like receptor signaling pathway - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map04621</t>
+  </si>
+  <si>
+    <t>map01212</t>
+  </si>
+  <si>
+    <t>Fatty acid metabolism - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map01212</t>
+  </si>
+  <si>
+    <t>map00730</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00730</t>
+  </si>
+  <si>
+    <t>XC_1519</t>
+  </si>
+  <si>
+    <t>map01524</t>
+  </si>
+  <si>
+    <t>Platinum drug resistance - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map01524</t>
+  </si>
+  <si>
+    <t>map00740</t>
+  </si>
+  <si>
+    <t>Riboflavin metabolism - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00740</t>
+  </si>
+  <si>
+    <t>XC_4326</t>
+  </si>
+  <si>
+    <t>map00620</t>
+  </si>
+  <si>
+    <t>Pyruvate metabolism - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00620</t>
+  </si>
+  <si>
+    <t>map04112</t>
+  </si>
+  <si>
+    <t>Cell cycle - Caulobacter - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map04112</t>
+  </si>
+  <si>
+    <t>XC_0001</t>
+  </si>
+  <si>
+    <t>map05200</t>
+  </si>
+  <si>
+    <t>Pathways in cancer - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map05200</t>
+  </si>
+  <si>
+    <t>map00500</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00500</t>
+  </si>
+  <si>
+    <t>XC_0626; XC_1005</t>
+  </si>
+  <si>
+    <t>map00550</t>
+  </si>
+  <si>
+    <t>Peptidoglycan biosynthesis - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00550</t>
+  </si>
+  <si>
+    <t>XC_3111</t>
+  </si>
+  <si>
+    <t>map00860</t>
+  </si>
+  <si>
+    <t>Porphyrin and chlorophyll metabolism - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map00860</t>
+  </si>
+  <si>
+    <t>XC_3897</t>
+  </si>
+  <si>
     <t>map01100</t>
   </si>
   <si>
@@ -588,100 +822,22 @@
     <t>XC_1519; XC_4131; XC_4326; XC_3897; XC_3111; XC_1768; XC_1770; XC_0194; XC_2943; XC_0204; XC_1792; XC_1793; XC_1794; XC_1885; XC_3762; XC_1454; XC_1300; XC_1884; XC_3763; XC_1455; XC_1301; XC_0626; XC_1005</t>
   </si>
   <si>
-    <t>map01501</t>
-  </si>
-  <si>
-    <t>beta-Lactam resistance - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map01501</t>
-  </si>
-  <si>
-    <t>XC_1235; XC_0828</t>
-  </si>
-  <si>
-    <t>map04210</t>
-  </si>
-  <si>
-    <t>Apoptosis - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map04210</t>
-  </si>
-  <si>
-    <t>map00380</t>
-  </si>
-  <si>
-    <t>Tryptophan metabolism - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00380</t>
-  </si>
-  <si>
-    <t>map00640</t>
-  </si>
-  <si>
-    <t>Propanoate metabolism - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00640</t>
-  </si>
-  <si>
-    <t>map00362</t>
-  </si>
-  <si>
-    <t>Benzoate degradation - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00362</t>
-  </si>
-  <si>
-    <t>map05133</t>
-  </si>
-  <si>
-    <t>Pertussis - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05133</t>
-  </si>
-  <si>
-    <t>XC_0828</t>
-  </si>
-  <si>
-    <t>map04214</t>
-  </si>
-  <si>
-    <t>Apoptosis - fly - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map04214</t>
-  </si>
-  <si>
-    <t>map00280</t>
-  </si>
-  <si>
-    <t>Valine, leucine and isoleucine degradation - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00280</t>
-  </si>
-  <si>
-    <t>map00720</t>
-  </si>
-  <si>
-    <t>Carbon fixation pathways in prokaryotes - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00720</t>
-  </si>
-  <si>
-    <t>map00650</t>
-  </si>
-  <si>
-    <t>Butanoate metabolism - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00650</t>
+    <t>map03070</t>
+  </si>
+  <si>
+    <t>Bacterial secretion system - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map03070</t>
+  </si>
+  <si>
+    <t>map01200</t>
+  </si>
+  <si>
+    <t>Carbon metabolism - Reference pathway</t>
+  </si>
+  <si>
+    <t>http://www.genome.jp/kegg-bin/show_pathway?map01200</t>
   </si>
   <si>
     <t>map01120</t>
@@ -693,54 +849,6 @@
     <t>http://www.genome.jp/kegg-bin/show_pathway?map01120</t>
   </si>
   <si>
-    <t>map00790</t>
-  </si>
-  <si>
-    <t>Folate biosynthesis - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00790</t>
-  </si>
-  <si>
-    <t>XC_1519; XC_4131</t>
-  </si>
-  <si>
-    <t>map01212</t>
-  </si>
-  <si>
-    <t>Fatty acid metabolism - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map01212</t>
-  </si>
-  <si>
-    <t>map05014</t>
-  </si>
-  <si>
-    <t>Amyotrophic lateral sclerosis (ALS) - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05014</t>
-  </si>
-  <si>
-    <t>map04621</t>
-  </si>
-  <si>
-    <t>NOD-like receptor signaling pathway - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map04621</t>
-  </si>
-  <si>
-    <t>map00620</t>
-  </si>
-  <si>
-    <t>Pyruvate metabolism - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00620</t>
-  </si>
-  <si>
     <t>map01230</t>
   </si>
   <si>
@@ -748,114 +856,6 @@
   </si>
   <si>
     <t>http://www.genome.jp/kegg-bin/show_pathway?map01230</t>
-  </si>
-  <si>
-    <t>map01200</t>
-  </si>
-  <si>
-    <t>Carbon metabolism - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map01200</t>
-  </si>
-  <si>
-    <t>map00730</t>
-  </si>
-  <si>
-    <t>Thiamine metabolism - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00730</t>
-  </si>
-  <si>
-    <t>XC_1519</t>
-  </si>
-  <si>
-    <t>map01524</t>
-  </si>
-  <si>
-    <t>Platinum drug resistance - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map01524</t>
-  </si>
-  <si>
-    <t>map00500</t>
-  </si>
-  <si>
-    <t>Starch and sucrose metabolism - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00500</t>
-  </si>
-  <si>
-    <t>XC_0626; XC_1005</t>
-  </si>
-  <si>
-    <t>map00740</t>
-  </si>
-  <si>
-    <t>Riboflavin metabolism - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00740</t>
-  </si>
-  <si>
-    <t>XC_4326</t>
-  </si>
-  <si>
-    <t>map04112</t>
-  </si>
-  <si>
-    <t>Cell cycle - Caulobacter - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map04112</t>
-  </si>
-  <si>
-    <t>XC_0001</t>
-  </si>
-  <si>
-    <t>map03070</t>
-  </si>
-  <si>
-    <t>Bacterial secretion system - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map03070</t>
-  </si>
-  <si>
-    <t>map05200</t>
-  </si>
-  <si>
-    <t>Pathways in cancer - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map05200</t>
-  </si>
-  <si>
-    <t>map00550</t>
-  </si>
-  <si>
-    <t>Peptidoglycan biosynthesis - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00550</t>
-  </si>
-  <si>
-    <t>XC_3111</t>
-  </si>
-  <si>
-    <t>map00860</t>
-  </si>
-  <si>
-    <t>Porphyrin and chlorophyll metabolism - Reference pathway</t>
-  </si>
-  <si>
-    <t>http://www.genome.jp/kegg-bin/show_pathway?map00860</t>
-  </si>
-  <si>
-    <t>XC_3897</t>
   </si>
 </sst>
 </file>
@@ -1669,17 +1669,17 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1726,10 +1726,10 @@
         <v>0.99248120300751896</v>
       </c>
       <c r="E2" s="1">
-        <v>2.8252634240585202E-175</v>
+        <v>2.8252634240657702E-175</v>
       </c>
       <c r="F2" s="1">
-        <v>2.1189475680438901E-173</v>
+        <v>2.1189475680493299E-173</v>
       </c>
       <c r="G2">
         <v>133</v>
@@ -1755,10 +1755,10 @@
         <v>0.86</v>
       </c>
       <c r="E3" s="1">
-        <v>3.5243474075552402E-42</v>
+        <v>3.6157111444355499E-42</v>
       </c>
       <c r="F3" s="1">
-        <v>1.3216302778332099E-40</v>
+        <v>1.35589167916333E-40</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -1784,10 +1784,10 @@
         <v>0.6</v>
       </c>
       <c r="E4" s="1">
-        <v>7.5447226009545002E-11</v>
+        <v>7.9049766596221195E-11</v>
       </c>
       <c r="F4" s="1">
-        <v>1.88618065023863E-9</v>
+        <v>1.9762441649055298E-9</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -1813,10 +1813,10 @@
         <v>0.25</v>
       </c>
       <c r="E5" s="1">
-        <v>6.2304314100668397E-8</v>
+        <v>6.9958681156736795E-8</v>
       </c>
       <c r="F5" s="1">
-        <v>1.16820588938753E-6</v>
+        <v>1.3117252716888201E-6</v>
       </c>
       <c r="G5">
         <v>52</v>
@@ -1842,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>5.8897983001377599E-5</v>
+        <v>6.0413368207652003E-5</v>
       </c>
       <c r="F6">
-        <v>8.0315431365514899E-4</v>
+        <v>8.2381865737707295E-4</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>5.8897983001377599E-5</v>
+        <v>6.0413368207652003E-5</v>
       </c>
       <c r="F7">
-        <v>8.0315431365514899E-4</v>
+        <v>8.2381865737707295E-4</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1900,10 +1900,10 @@
         <v>0.45454545454545497</v>
       </c>
       <c r="E8" s="1">
-        <v>9.0832447653708495E-5</v>
+        <v>9.6314496979282393E-5</v>
       </c>
       <c r="F8">
-        <v>9.73204796289734E-4</v>
+        <v>1.0319410390637401E-3</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1929,10 +1929,10 @@
         <v>0.8</v>
       </c>
       <c r="E9">
-        <v>1.02762149910029E-4</v>
+        <v>1.06085434834606E-4</v>
       </c>
       <c r="F9">
-        <v>9.63395155406526E-4</v>
+        <v>9.94550951574435E-4</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1958,10 +1958,10 @@
         <v>0.57142857142857095</v>
       </c>
       <c r="E10">
-        <v>2.5286410648738298E-4</v>
+        <v>2.6444072802059803E-4</v>
       </c>
       <c r="F10">
-        <v>2.1072008873948499E-3</v>
+        <v>2.2036727335049901E-3</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -1987,10 +1987,10 @@
         <v>0.3125</v>
       </c>
       <c r="E11">
-        <v>3.6238975234777698E-4</v>
+        <v>3.9499062577920603E-4</v>
       </c>
       <c r="F11">
-        <v>2.7179231426083298E-3</v>
+        <v>2.9624296933440501E-3</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -2016,10 +2016,10 @@
         <v>0.44444444444444398</v>
       </c>
       <c r="E12">
-        <v>5.1472669235550601E-4</v>
+        <v>5.4536654308745005E-4</v>
       </c>
       <c r="F12">
-        <v>3.5095001751511801E-3</v>
+        <v>3.71840824832353E-3</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -2045,10 +2045,10 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>5.6146594002401504E-4</v>
+        <v>5.7506955300305903E-4</v>
       </c>
       <c r="F13">
-        <v>3.2392265770616298E-3</v>
+        <v>3.3177089596330301E-3</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2074,10 +2074,10 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>5.6146594002401504E-4</v>
+        <v>5.7506955300305903E-4</v>
       </c>
       <c r="F14">
-        <v>3.2392265770616298E-3</v>
+        <v>3.3177089596330301E-3</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2103,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>5.6146594002401504E-4</v>
+        <v>5.7506955300305903E-4</v>
       </c>
       <c r="F15">
-        <v>3.2392265770616298E-3</v>
+        <v>3.3177089596330301E-3</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -2132,10 +2132,10 @@
         <v>0.1875</v>
       </c>
       <c r="E16">
-        <v>9.16963016282406E-4</v>
+        <v>1.0661682428818101E-3</v>
       </c>
       <c r="F16">
-        <v>4.5848150814120298E-3</v>
+        <v>5.3308412144090498E-3</v>
       </c>
       <c r="G16">
         <v>32</v>
@@ -2161,10 +2161,10 @@
         <v>0.6</v>
       </c>
       <c r="E17">
-        <v>1.47637610723453E-3</v>
+        <v>1.5367894754493301E-3</v>
       </c>
       <c r="F17">
-        <v>6.7108004874296898E-3</v>
+        <v>6.9854067065878798E-3</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -2190,10 +2190,10 @@
         <v>0.6</v>
       </c>
       <c r="E18">
-        <v>1.47637610723453E-3</v>
+        <v>1.5367894754493301E-3</v>
       </c>
       <c r="F18">
-        <v>6.7108004874296898E-3</v>
+        <v>6.9854067065878798E-3</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -2219,10 +2219,10 @@
         <v>0.146341463414634</v>
       </c>
       <c r="E19">
-        <v>2.6997046652583001E-3</v>
+        <v>3.2863781878564101E-3</v>
       </c>
       <c r="F19">
-        <v>1.12487694385762E-2</v>
+        <v>1.3693242449401699E-2</v>
       </c>
       <c r="G19">
         <v>41</v>
@@ -2248,10 +2248,10 @@
         <v>0.16129032258064499</v>
       </c>
       <c r="E20">
-        <v>4.2120525631406001E-3</v>
+        <v>5.0042892540711403E-3</v>
       </c>
       <c r="F20">
-        <v>1.6626523275555E-2</v>
+        <v>1.97537733713334E-2</v>
       </c>
       <c r="G20">
         <v>31</v>
@@ -2277,10 +2277,10 @@
         <v>0.14285714285714299</v>
       </c>
       <c r="E21">
-        <v>6.4904488387066903E-3</v>
+        <v>7.8980369878327607E-3</v>
       </c>
       <c r="F21">
-        <v>2.4339183145150101E-2</v>
+        <v>2.9617638704372899E-2</v>
       </c>
       <c r="G21">
         <v>35</v>
@@ -2306,10 +2306,10 @@
         <v>0.230769230769231</v>
       </c>
       <c r="E22">
-        <v>1.14795844562499E-2</v>
+        <v>1.27689618642689E-2</v>
       </c>
       <c r="F22">
-        <v>4.0998515915178203E-2</v>
+        <v>4.5603435229531801E-2</v>
       </c>
       <c r="G22">
         <v>13</v>
@@ -2335,10 +2335,10 @@
         <v>0.2</v>
       </c>
       <c r="E23">
-        <v>1.5706421680596602E-2</v>
+        <v>1.7770365529355001E-2</v>
       </c>
       <c r="F23">
-        <v>5.3544619365670398E-2</v>
+        <v>6.0580791577346402E-2</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -2361,48 +2361,48 @@
         <v>100</v>
       </c>
       <c r="D24">
-        <v>1.1070110701107E-2</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E24">
-        <v>1.5801327481477799E-2</v>
+        <v>2.4483081203771E-2</v>
       </c>
       <c r="F24">
-        <v>5.1526067874383998E-2</v>
+        <v>7.8137493203524505E-2</v>
       </c>
       <c r="G24">
-        <v>271</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25">
         <v>0.33333333333333298</v>
       </c>
       <c r="E25">
-        <v>2.29462917282106E-2</v>
+        <v>2.4483081203771E-2</v>
       </c>
       <c r="F25">
-        <v>7.0243750188399706E-2</v>
+        <v>7.8137493203524505E-2</v>
       </c>
       <c r="G25">
         <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
         <v>106</v>
@@ -2419,19 +2419,19 @@
         <v>109</v>
       </c>
       <c r="D26">
-        <v>0.33333333333333298</v>
+        <v>0.25</v>
       </c>
       <c r="E26">
-        <v>2.29462917282106E-2</v>
+        <v>3.77576176673209E-2</v>
       </c>
       <c r="F26">
-        <v>7.0243750188399706E-2</v>
+        <v>0.11327285300196301</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I26" t="s">
         <v>110</v>
@@ -2448,51 +2448,51 @@
         <v>113</v>
       </c>
       <c r="D27">
-        <v>9.6618357487922701E-3</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="E27">
-        <v>2.60857407518214E-2</v>
+        <v>4.5209746456418197E-2</v>
       </c>
       <c r="F27">
-        <v>7.5247329091792395E-2</v>
+        <v>0.127952112612504</v>
       </c>
       <c r="G27">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="H27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28">
-        <v>0.25</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="E28">
-        <v>3.4614197020616203E-2</v>
+        <v>4.5209746456418197E-2</v>
       </c>
       <c r="F28">
-        <v>9.6150547279489407E-2</v>
+        <v>0.127952112612504</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2506,19 +2506,19 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>0.22222222222222199</v>
+        <v>1.1070110701107E-2</v>
       </c>
       <c r="E29">
-        <v>4.0986708340310603E-2</v>
+        <v>4.6750072079988297E-2</v>
       </c>
       <c r="F29">
-        <v>0.107859758790291</v>
+        <v>0.12522340735711199</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="I29" t="s">
         <v>121</v>
@@ -2535,22 +2535,22 @@
         <v>124</v>
       </c>
       <c r="D30">
-        <v>0.22222222222222199</v>
+        <v>0.125</v>
       </c>
       <c r="E30">
-        <v>4.0986708340310603E-2</v>
+        <v>5.1891525448348901E-2</v>
       </c>
       <c r="F30">
-        <v>0.107859758790291</v>
+        <v>0.13420222098710899</v>
       </c>
       <c r="G30">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2564,109 +2564,109 @@
         <v>127</v>
       </c>
       <c r="D31">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>4.2390421228838397E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F31">
-        <v>0.105976053072096</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G31">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F32">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F33">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F34">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2683,19 +2683,19 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F35">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2712,19 +2712,19 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F36">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2741,19 +2741,19 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F37">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2770,19 +2770,19 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F38">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2799,19 +2799,19 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F39">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2828,19 +2828,19 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F40">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2857,19 +2857,19 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F41">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I41" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2886,19 +2886,19 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F42">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2915,19 +2915,19 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F43">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2944,19 +2944,19 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>6.12064082033952E-2</v>
+        <v>6.2197268247416497E-2</v>
       </c>
       <c r="F44">
-        <v>0.12241281640679</v>
+        <v>0.12780260598784199</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2970,22 +2970,22 @@
         <v>173</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>9.6618357487922701E-3</v>
       </c>
       <c r="E45">
-        <v>6.12064082033952E-2</v>
+        <v>6.5630831761223293E-2</v>
       </c>
       <c r="F45">
-        <v>0.12241281640679</v>
+        <v>0.111870735956631</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="H45" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3002,19 +3002,19 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="E46">
-        <v>6.1661973233904897E-2</v>
+        <v>7.0353427393063203E-2</v>
       </c>
       <c r="F46">
-        <v>0.102769955389841</v>
+        <v>0.117255712321772</v>
       </c>
       <c r="G46">
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3031,19 +3031,19 @@
         <v>0.15384615384615399</v>
       </c>
       <c r="E47">
-        <v>6.8927178016396598E-2</v>
+        <v>7.9543717795565697E-2</v>
       </c>
       <c r="F47">
-        <v>0.112381268504995</v>
+        <v>0.129690844231901</v>
       </c>
       <c r="G47">
         <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3057,515 +3057,515 @@
         <v>182</v>
       </c>
       <c r="D48">
-        <v>7.1428571428571397E-2</v>
+        <v>0.5</v>
       </c>
       <c r="E48">
-        <v>8.0282388442976194E-2</v>
+        <v>9.1840458044226705E-2</v>
       </c>
       <c r="F48">
-        <v>0.128110194323898</v>
+        <v>0.14655392241099999</v>
       </c>
       <c r="G48">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I48" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
         <v>184</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>185</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="E49">
+        <v>9.8940347316669897E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.15459429268229699</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" t="s">
         <v>186</v>
-      </c>
-      <c r="D49">
-        <v>3.6220472440944902E-2</v>
-      </c>
-      <c r="E49">
-        <v>8.06557328413747E-2</v>
-      </c>
-      <c r="F49">
-        <v>0.12602458256464799</v>
-      </c>
-      <c r="G49">
-        <v>635</v>
-      </c>
-      <c r="H49" t="s">
-        <v>187</v>
-      </c>
-      <c r="I49" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" t="s">
         <v>189</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.120092007835594</v>
+      </c>
+      <c r="F50">
+        <v>0.18381429770754101</v>
+      </c>
+      <c r="G50">
+        <v>56</v>
+      </c>
+      <c r="H50" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" t="s">
         <v>190</v>
-      </c>
-      <c r="C50" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="E50">
-        <v>8.3787718734567501E-2</v>
-      </c>
-      <c r="F50">
-        <v>0.128246508267195</v>
-      </c>
-      <c r="G50">
-        <v>15</v>
-      </c>
-      <c r="H50" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" t="s">
         <v>193</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E51">
+        <v>0.120553526197791</v>
+      </c>
+      <c r="F51">
+        <v>0.17903989039276</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>128</v>
+      </c>
+      <c r="I51" t="s">
         <v>194</v>
-      </c>
-      <c r="C51" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51">
-        <v>0.5</v>
-      </c>
-      <c r="E51">
-        <v>8.8929569390349697E-2</v>
-      </c>
-      <c r="F51">
-        <v>0.133394354085524</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51" t="s">
-        <v>131</v>
-      </c>
-      <c r="I51" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" t="s">
         <v>196</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>197</v>
       </c>
-      <c r="C52" t="s">
-        <v>198</v>
-      </c>
       <c r="D52">
-        <v>0.11111111111111099</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E52">
-        <v>0.10642170281791501</v>
+        <v>0.120553526197791</v>
       </c>
       <c r="F52">
-        <v>0.156502504143993</v>
+        <v>0.17903989039276</v>
       </c>
       <c r="G52">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I52" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s">
         <v>199</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>200</v>
       </c>
-      <c r="C53" t="s">
-        <v>201</v>
-      </c>
       <c r="D53">
-        <v>0.105263157894737</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="E53">
-        <v>0.113946469683828</v>
+        <v>0.130136129714334</v>
       </c>
       <c r="F53">
-        <v>0.162780670976898</v>
+        <v>0.18769634093413601</v>
       </c>
       <c r="G53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" t="s">
         <v>202</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>203</v>
-      </c>
-      <c r="C54" t="s">
-        <v>204</v>
       </c>
       <c r="D54">
         <v>0.105263157894737</v>
       </c>
       <c r="E54">
-        <v>0.113946469683828</v>
+        <v>0.14098817444755599</v>
       </c>
       <c r="F54">
-        <v>0.162780670976898</v>
+        <v>0.197646973524612</v>
       </c>
       <c r="G54">
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I54" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" t="s">
         <v>205</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>206</v>
       </c>
-      <c r="C55" t="s">
-        <v>207</v>
-      </c>
       <c r="D55">
-        <v>0.33333333333333298</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="E55">
-        <v>0.114852272611441</v>
+        <v>0.14098817444755599</v>
       </c>
       <c r="F55">
-        <v>0.15805358616253301</v>
+        <v>0.197646973524612</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I55" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" t="s">
         <v>209</v>
       </c>
-      <c r="B56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" t="s">
-        <v>211</v>
-      </c>
       <c r="D56">
-        <v>0.33333333333333298</v>
+        <v>0.1</v>
       </c>
       <c r="E56">
-        <v>0.114852272611441</v>
+        <v>0.15202648172149699</v>
       </c>
       <c r="F56">
-        <v>0.15805358616253301</v>
+        <v>0.20730883871113301</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I56" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" t="s">
         <v>212</v>
       </c>
-      <c r="B57" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" t="s">
-        <v>214</v>
-      </c>
       <c r="D57">
-        <v>0.1</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="E57">
-        <v>0.12142138002368399</v>
+        <v>0.19761312731418801</v>
       </c>
       <c r="F57">
-        <v>0.16261791967457701</v>
+        <v>0.26231831059405403</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" t="s">
         <v>215</v>
-      </c>
-      <c r="B58" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" t="s">
-        <v>217</v>
       </c>
       <c r="D58">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="E58">
-        <v>0.15043164866849301</v>
+        <v>0.19761312731418801</v>
       </c>
       <c r="F58">
-        <v>0.19621519391542599</v>
+        <v>0.26231831059405403</v>
       </c>
       <c r="G58">
         <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" t="s">
         <v>218</v>
       </c>
-      <c r="B59" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" t="s">
-        <v>220</v>
-      </c>
       <c r="D59">
-        <v>8.3333333333333301E-2</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="E59">
-        <v>0.15043164866849301</v>
+        <v>0.20139723880343699</v>
       </c>
       <c r="F59">
-        <v>0.19621519391542599</v>
+        <v>0.26042746396996203</v>
       </c>
       <c r="G59">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" t="s">
         <v>221</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="E60">
+        <v>0.22099782182909999</v>
+      </c>
+      <c r="F60">
+        <v>0.28092943452851699</v>
+      </c>
+      <c r="G60">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" t="s">
         <v>222</v>
-      </c>
-      <c r="C60" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60">
-        <v>2.6315789473684199E-2</v>
-      </c>
-      <c r="E60">
-        <v>0.15978432703298501</v>
-      </c>
-      <c r="F60">
-        <v>0.203115669957184</v>
-      </c>
-      <c r="G60">
-        <v>190</v>
-      </c>
-      <c r="H60" t="s">
-        <v>40</v>
-      </c>
-      <c r="I60" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" t="s">
         <v>224</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>225</v>
       </c>
-      <c r="C61" t="s">
-        <v>226</v>
-      </c>
       <c r="D61">
-        <v>7.69230769230769E-2</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="E61">
-        <v>0.164177529118784</v>
+        <v>0.22667068988952799</v>
       </c>
       <c r="F61">
-        <v>0.20522191139848001</v>
+        <v>0.28333836236191001</v>
       </c>
       <c r="G61">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I61" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" t="s">
         <v>228</v>
-      </c>
-      <c r="B62" t="s">
-        <v>229</v>
-      </c>
-      <c r="C62" t="s">
-        <v>230</v>
       </c>
       <c r="D62">
         <v>7.4074074074074098E-2</v>
       </c>
       <c r="E62">
-        <v>0.17081496068422899</v>
+        <v>0.232778163945079</v>
       </c>
       <c r="F62">
-        <v>0.21001839428388799</v>
+        <v>0.28620266058821198</v>
       </c>
       <c r="G62">
         <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I62" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" t="s">
         <v>231</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="E63">
+        <v>0.27486046341758202</v>
+      </c>
+      <c r="F63">
+        <v>0.32983255610109802</v>
+      </c>
+      <c r="G63">
+        <v>9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>128</v>
+      </c>
+      <c r="I63" t="s">
         <v>232</v>
-      </c>
-      <c r="C63" t="s">
-        <v>233</v>
-      </c>
-      <c r="D63">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="E63">
-        <v>0.18265073053123301</v>
-      </c>
-      <c r="F63">
-        <v>0.22094846435229801</v>
-      </c>
-      <c r="G63">
-        <v>6</v>
-      </c>
-      <c r="H63" t="s">
-        <v>131</v>
-      </c>
-      <c r="I63" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" t="s">
         <v>234</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>235</v>
       </c>
-      <c r="C64" t="s">
-        <v>236</v>
-      </c>
       <c r="D64">
-        <v>0.14285714285714299</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="E64">
-        <v>0.202187608684778</v>
+        <v>0.27486046341758202</v>
       </c>
       <c r="F64">
-        <v>0.240699534148545</v>
+        <v>0.32983255610109802</v>
       </c>
       <c r="G64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I64" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65" t="s">
         <v>237</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>238</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65">
+        <v>0.1</v>
+      </c>
+      <c r="E65">
+        <v>0.297825535113174</v>
+      </c>
+      <c r="F65">
+        <v>0.34901429896075098</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" t="s">
         <v>239</v>
-      </c>
-      <c r="D65">
-        <v>5.8823529411764698E-2</v>
-      </c>
-      <c r="E65">
-        <v>0.21207586282573199</v>
-      </c>
-      <c r="F65">
-        <v>0.248526401748905</v>
-      </c>
-      <c r="G65">
-        <v>34</v>
-      </c>
-      <c r="H65" t="s">
-        <v>105</v>
-      </c>
-      <c r="I65" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3579,22 +3579,22 @@
         <v>242</v>
       </c>
       <c r="D66">
-        <v>2.7522935779816501E-2</v>
+        <v>5.8823529411764698E-2</v>
       </c>
       <c r="E66">
-        <v>0.21946742160357199</v>
+        <v>0.31558549937739899</v>
       </c>
       <c r="F66">
-        <v>0.253231640311814</v>
+        <v>0.36413711466623</v>
       </c>
       <c r="G66">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="I66" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3608,51 +3608,51 @@
         <v>245</v>
       </c>
       <c r="D67">
-        <v>2.1052631578947399E-2</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="E67">
-        <v>0.22084353016907099</v>
+        <v>0.320068642709609</v>
       </c>
       <c r="F67">
-        <v>0.250958557010308</v>
+        <v>0.36371436671546498</v>
       </c>
       <c r="G67">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I67" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D68">
-        <v>0.11111111111111099</v>
+        <v>7.69230769230769E-2</v>
       </c>
       <c r="E68">
-        <v>0.237102845749361</v>
+        <v>0.36247838338355498</v>
       </c>
       <c r="F68">
-        <v>0.26344760638817899</v>
+        <v>0.40575938438457598</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I68" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3666,225 +3666,225 @@
         <v>252</v>
       </c>
       <c r="D69">
-        <v>0.11111111111111099</v>
+        <v>4.8780487804878099E-2</v>
       </c>
       <c r="E69">
-        <v>0.237102845749361</v>
+        <v>0.39637428954388798</v>
       </c>
       <c r="F69">
-        <v>0.26344760638817899</v>
+        <v>0.43717752523222903</v>
       </c>
       <c r="G69">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="H69" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I69" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D70">
-        <v>4.8780487804878099E-2</v>
+        <v>4.7619047619047603E-2</v>
       </c>
       <c r="E70">
-        <v>0.24312119907055901</v>
+        <v>0.50741904876928701</v>
       </c>
       <c r="F70">
-        <v>0.26426217290278098</v>
+        <v>0.55154244431444299</v>
       </c>
       <c r="G70">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H70" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D71">
-        <v>0.1</v>
+        <v>3.5714285714285698E-2</v>
       </c>
       <c r="E71">
-        <v>0.25261578865623502</v>
+        <v>0.60709949818255204</v>
       </c>
       <c r="F71">
-        <v>0.270659773560252</v>
+        <v>0.65046374805273399</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D72">
-        <v>9.0909090909090898E-2</v>
+        <v>3.6220472440944902E-2</v>
       </c>
       <c r="E72">
-        <v>0.26691729118831398</v>
+        <v>0.62669127013384496</v>
       </c>
       <c r="F72">
-        <v>0.28195488505807798</v>
+        <v>0.66199782056392098</v>
       </c>
       <c r="G72">
-        <v>11</v>
+        <v>635</v>
       </c>
       <c r="H72" t="s">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="I72" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B73" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C73" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D73">
         <v>1.58730158730159E-2</v>
       </c>
       <c r="E73">
-        <v>0.26749266826477502</v>
+        <v>0.72293963464116195</v>
       </c>
       <c r="F73">
-        <v>0.27863819610914098</v>
+        <v>0.75306211941787704</v>
       </c>
       <c r="G73">
         <v>63</v>
       </c>
       <c r="H73" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I73" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C74" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D74">
-        <v>7.69230769230769E-2</v>
+        <v>2.1052631578947399E-2</v>
       </c>
       <c r="E74">
-        <v>0.29212495599010202</v>
+        <v>0.769954656072667</v>
       </c>
       <c r="F74">
-        <v>0.30012837944188597</v>
+        <v>0.79104930418424702</v>
       </c>
       <c r="G74">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="H74" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I74" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B75" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C75" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D75">
-        <v>4.7619047619047603E-2</v>
+        <v>2.6315789473684199E-2</v>
       </c>
       <c r="E75">
-        <v>0.355392567048602</v>
+        <v>0.83339401040571304</v>
       </c>
       <c r="F75">
-        <v>0.36019516930601603</v>
+        <v>0.84465609162741195</v>
       </c>
       <c r="G75">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="H75" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="I75" t="s">
-        <v>274</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C76" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D76">
-        <v>3.5714285714285698E-2</v>
+        <v>2.7522935779816501E-2</v>
       </c>
       <c r="E76">
-        <v>0.37432133423659503</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>0.37432133423659503</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="H76" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="I76" t="s">
-        <v>278</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3894,7 +3894,7 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>

--- a/src/GCModeller/annotations/GSEA/data/TCS_result_KO.xlsx
+++ b/src/GCModeller/annotations/GSEA/data/TCS_result_KO.xlsx
@@ -1669,13 +1669,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
